--- a/use-case-criar-deslocacao.xlsx
+++ b/use-case-criar-deslocacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepereira/josepereira/work/git/projects/projeto-er/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D641B05-1565-7E40-B647-F89276C3BA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741A0658-2869-0241-9855-FF3519242FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Use Case:</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>9. valida valor inserido</t>
-  </si>
-  <si>
-    <t>13.5 encerra processo</t>
-  </si>
-  <si>
-    <t>13.4 verifica o tipo</t>
   </si>
   <si>
     <t>7. informa para inserir o tipo</t>
@@ -133,15 +127,6 @@
     </r>
   </si>
   <si>
-    <t>10.1 informa para inserir tipo de data (dias da semana, ou datas fixas)</t>
-  </si>
-  <si>
-    <t>10.2 insere o tipo de data</t>
-  </si>
-  <si>
-    <t>10.3 valida o valor inserido</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Alternativa 2 
 </t>
@@ -169,22 +154,67 @@
     </r>
   </si>
   <si>
-    <t>13.1 informa para inserir datas fixas</t>
-  </si>
-  <si>
-    <t>13.2 insere datas</t>
-  </si>
-  <si>
-    <t>13.3 valida as datas inseridas</t>
-  </si>
-  <si>
-    <t>13.4 guarda a deslocação no sistema</t>
-  </si>
-  <si>
-    <t>13.5 informa sucesso da criação</t>
-  </si>
-  <si>
-    <t>13.6 encerra processo</t>
+    <t>3.1/6.1/9.1/13.1/10.3.1/13.3.1 informa que o valor é inválido.</t>
+  </si>
+  <si>
+    <t>3.2/6.2/9.2/13.2/10.3.1/13.3.1 encerra processo</t>
+  </si>
+  <si>
+    <t>14. guarda a deslocação no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. informa sucesso de criação </t>
+  </si>
+  <si>
+    <t>16. encerra processo</t>
+  </si>
+  <si>
+    <t>10.1. informa para inserir tipo de data (dias da semana, ou datas fixas)</t>
+  </si>
+  <si>
+    <t>10.2. insere o tipo de data</t>
+  </si>
+  <si>
+    <t>10.3. valida o valor inserido</t>
+  </si>
+  <si>
+    <t>10.4.4. guarda a deslocação no sistema</t>
+  </si>
+  <si>
+    <t>10.4.5. informa sucesso da criação</t>
+  </si>
+  <si>
+    <t>10.4.6. encerra processo</t>
+  </si>
+  <si>
+    <t>10.4.1. informa para inserir datas fixas</t>
+  </si>
+  <si>
+    <t>10.6. insere os dias da semana</t>
+  </si>
+  <si>
+    <t>10.5 informa para inserir os dias da semana</t>
+  </si>
+  <si>
+    <t>10.4. verifica o tipo</t>
+  </si>
+  <si>
+    <t>10.7. valida datas inseridas</t>
+  </si>
+  <si>
+    <t>10.8. guarda a deslocação no sistema</t>
+  </si>
+  <si>
+    <t>10.9. informa sucesso da criação</t>
+  </si>
+  <si>
+    <t>10.10. encerra processo</t>
+  </si>
+  <si>
+    <t>10.4.3. valida as datas inseridas</t>
+  </si>
+  <si>
+    <t>10.4.2. insere datas</t>
   </si>
   <si>
     <r>
@@ -198,7 +228,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(passo 3, 6, 9, 13, 10.3, 13.3)
+      <t xml:space="preserve">(passo 3, 6, 9, 13, 10.3, 10.7, 13.3)
 </t>
     </r>
     <r>
@@ -213,27 +243,12 @@
 </t>
     </r>
   </si>
-  <si>
-    <t>3.1/6.1/9.1/13.1/10.3.1/13.3.1 informa que o valor é inválido.</t>
-  </si>
-  <si>
-    <t>3.2/6.2/9.2/13.2/10.3.1/13.3.1 encerra processo</t>
-  </si>
-  <si>
-    <t>14. guarda a deslocação no sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. informa sucesso de criação </t>
-  </si>
-  <si>
-    <t>16. encerra processo</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -253,6 +268,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -440,35 +462,21 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -487,7 +495,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,10 +519,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,263 +948,339 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="13" t="s">
+    <row r="18" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="30" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="22"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="22"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="101" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="22" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="101" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="12" t="s">
-        <v>39</v>
-      </c>
+    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="38"/>
+    </row>
+    <row r="64" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B64" s="39"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="40"/>
+    </row>
+    <row r="65" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
